--- a/common/ItemReward.xlsx
+++ b/common/ItemReward.xlsx
@@ -14,12 +14,19 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7">
   <si>
     <t>序号</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">获取方式
 </t>
     </r>
@@ -89,6 +96,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">reward </t>
     </r>
     <r>
@@ -103,15 +117,18 @@
       <t>array</t>
     </r>
   </si>
+  <si>
+    <t>102001,1,10;102002,1,10;102003,1,10;102004,1,10</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -138,6 +155,35 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -145,6 +191,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -152,41 +230,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -198,11 +246,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -214,8 +261,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -223,23 +271,22 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -247,36 +294,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -317,181 +334,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -520,17 +537,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -546,6 +557,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -603,15 +629,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -625,10 +642,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -637,153 +654,159 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1123,34 +1146,45 @@
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="13.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="110" style="1" customWidth="1"/>
+    <col min="3" max="3" width="110" style="2" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="68.25" spans="1:3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" ht="27.75" spans="1:3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="7" t="s">
         <v>5</v>
       </c>
     </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>102005</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
     <row r="19" spans="10:10">
-      <c r="J19" s="6"/>
+      <c r="J19" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>

--- a/common/ItemReward.xlsx
+++ b/common/ItemReward.xlsx
@@ -44,9 +44,9 @@
   <si>
     <t>奖励内容
 全部获取
-[道具id,数量;道具id,数量...]
+[道具id,数量,道具id,数量...]
 权重获取
-[道具id,数量,权重;道具id,数量,权重...]</t>
+[道具id,数量,权重,道具id,数量,权重...]</t>
   </si>
   <si>
     <r>
@@ -118,7 +118,7 @@
     </r>
   </si>
   <si>
-    <t>102001,1,10;102002,1,10;102003,1,10;102004,1,10</t>
+    <t>102001,1,10,102002,1,10,102003,1,10,102004,1,10</t>
   </si>
 </sst>
 </file>
@@ -126,10 +126,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -153,6 +153,126 @@
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -163,42 +283,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -207,93 +291,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -334,37 +334,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -376,127 +496,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -541,7 +541,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -606,7 +615,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -625,15 +634,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -642,10 +642,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -654,37 +654,37 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -693,94 +693,94 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1139,7 +1139,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/common/ItemReward.xlsx
+++ b/common/ItemReward.xlsx
@@ -14,9 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16">
   <si>
     <t>序号</t>
+  </si>
+  <si>
+    <t>奖励组id</t>
   </si>
   <si>
     <r>
@@ -42,11 +45,13 @@
     </r>
   </si>
   <si>
-    <t>奖励内容
-全部获取
-[道具id,数量,道具id,数量...]
-权重获取
-[道具id,数量,权重,道具id,数量,权重...]</t>
+    <t>道具id</t>
+  </si>
+  <si>
+    <t>道具数量</t>
+  </si>
+  <si>
+    <t>权重</t>
   </si>
   <si>
     <r>
@@ -72,6 +77,9 @@
     </r>
   </si>
   <si>
+    <t>reward_id int</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -96,14 +104,7 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">reward </t>
+      <t xml:space="preserve">item_id </t>
     </r>
     <r>
       <rPr>
@@ -114,11 +115,50 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>array</t>
+      <t>int</t>
     </r>
   </si>
   <si>
-    <t>102001,1,10,102002,1,10,102003,1,10,102004,1,10</t>
+    <r>
+      <t xml:space="preserve">item_num </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t>int</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">wight </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t>int</t>
+    </r>
+  </si>
+  <si>
+    <t>102001</t>
+  </si>
+  <si>
+    <t>102002</t>
+  </si>
+  <si>
+    <t>102003</t>
+  </si>
+  <si>
+    <t>102004</t>
   </si>
 </sst>
 </file>
@@ -126,12 +166,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -156,6 +196,45 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -163,6 +242,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -170,15 +280,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -186,66 +288,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -259,9 +301,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -269,31 +318,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -312,6 +352,15 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <i/>
+      <u/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -334,121 +383,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -460,25 +545,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -494,26 +561,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -538,6 +587,67 @@
     </border>
     <border>
       <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right/>
       <top/>
       <bottom style="medium">
@@ -548,9 +658,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -587,32 +699,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
@@ -642,10 +728,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -654,137 +740,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -803,10 +889,22 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1136,55 +1234,144 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="13.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="110" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="1"/>
+    <col min="2" max="2" width="11.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.5" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="68.25" spans="1:3">
+    <row r="1" ht="41.25" spans="1:6">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" ht="27.75" spans="1:3">
-      <c r="A2" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>5</v>
+    <row r="2" ht="27.75" spans="1:6">
+      <c r="A2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
         <v>102005</v>
       </c>
-      <c r="B3" s="1">
+      <c r="C3" s="1">
         <v>2</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>6</v>
+      <c r="D3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>10</v>
       </c>
     </row>
-    <row r="19" spans="10:10">
-      <c r="J19" s="8"/>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1">
+        <v>102005</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1">
+        <v>102005</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1">
+        <v>102005</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="11:11">
+      <c r="K19" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>

--- a/common/ItemReward.xlsx
+++ b/common/ItemReward.xlsx
@@ -14,10 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16">
-  <si>
-    <t>序号</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14">
   <si>
     <t>奖励组id</t>
   </si>
@@ -55,13 +52,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
       <t xml:space="preserve">id </t>
     </r>
     <r>
@@ -75,9 +65,6 @@
       </rPr>
       <t>int</t>
     </r>
-  </si>
-  <si>
-    <t>reward_id int</t>
   </si>
   <si>
     <r>
@@ -104,6 +91,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">item_id </t>
     </r>
     <r>
@@ -120,6 +114,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">item_num </t>
     </r>
     <r>
@@ -128,6 +129,7 @@
         <u/>
         <sz val="11"/>
         <color theme="0"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>int</t>
@@ -135,6 +137,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">wight </t>
     </r>
     <r>
@@ -143,6 +152,7 @@
         <u/>
         <sz val="11"/>
         <color theme="0"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>int</t>
@@ -195,23 +205,16 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -225,9 +228,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -235,7 +244,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -243,14 +252,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -265,6 +266,52 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -273,12 +320,20 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -286,54 +341,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -351,6 +361,7 @@
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <i/>
@@ -359,7 +370,6 @@
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="34">
@@ -383,37 +393,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -425,139 +567,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -623,17 +633,56 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -668,54 +717,15 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -728,10 +738,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -740,137 +750,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -890,9 +900,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1234,144 +1241,125 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="11.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10.5" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="11.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.5" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="41.25" spans="1:6">
+    <row r="1" ht="41.25" spans="1:5">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+    </row>
+    <row r="2" ht="27.75" spans="1:5">
+      <c r="A2" s="7" t="s">
         <v>5</v>
       </c>
+      <c r="B2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" ht="27.75" spans="1:6">
-      <c r="A2" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="10" t="s">
+    <row r="3" spans="1:5">
+      <c r="A3" s="1">
+        <v>102005</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1">
+        <v>102005</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>10</v>
+      </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1">
+    <row r="5" spans="1:5">
+      <c r="A5" s="1">
+        <v>102005</v>
+      </c>
+      <c r="B5" s="1">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="1">
+      <c r="E5" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1">
         <v>102005</v>
       </c>
-      <c r="C3" s="1">
+      <c r="B6" s="1">
         <v>2</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="1">
+      <c r="C6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="1">
         <v>1</v>
       </c>
-      <c r="F3" s="1">
+      <c r="E6" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4" s="1">
-        <v>102005</v>
-      </c>
-      <c r="C4" s="1">
-        <v>2</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1">
-        <v>1</v>
-      </c>
-      <c r="B5" s="1">
-        <v>102005</v>
-      </c>
-      <c r="C5" s="1">
-        <v>2</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1</v>
-      </c>
-      <c r="F5" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1">
-        <v>1</v>
-      </c>
-      <c r="B6" s="1">
-        <v>102005</v>
-      </c>
-      <c r="C6" s="1">
-        <v>2</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="1">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="11:11">
-      <c r="K19" s="12"/>
+    <row r="19" spans="10:10">
+      <c r="J19" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>

--- a/common/ItemReward.xlsx
+++ b/common/ItemReward.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24180" windowHeight="13065"/>
+    <workbookView windowWidth="28695" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -52,6 +52,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">id </t>
     </r>
     <r>
@@ -137,14 +144,7 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">wight </t>
+      <t xml:space="preserve">weight </t>
     </r>
     <r>
       <rPr>
@@ -176,12 +176,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -203,6 +203,27 @@
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -213,45 +234,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -265,47 +257,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -320,30 +273,77 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -361,15 +361,6 @@
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <u/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="34">
@@ -399,175 +390,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -633,45 +624,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -700,18 +652,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -730,6 +686,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -738,10 +729,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -750,133 +741,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -911,7 +902,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1244,7 +1235,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
